--- a/temp/OUTPUT TIFF/EXCEL/Steganography Results.xlsx
+++ b/temp/OUTPUT TIFF/EXCEL/Steganography Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\F\Programming-in-XYZ\DIP\Project Jan 2022\monika proposed algo\temp\OUTPUT TIFF\EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53915D26-3000-4245-9124-3C0AD2BD1098}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40368C25-E80F-4A47-A1F8-78CDCF7B744F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10920" xr2:uid="{50609699-6D32-4D2D-BAC0-1E434FB2C1AE}"/>
   </bookViews>
